--- a/Resources/ML_models.xlsx
+++ b/Resources/ML_models.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elainehm/Desktop/DA/Diabetes-Predictions-in-ICUs/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF846AE-4FFE-8C48-9F68-7EC7734E0A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757997FB-9506-644E-A271-E82D67F2DE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="2840" windowWidth="28040" windowHeight="17440" xr2:uid="{1A86E8AF-80D3-044C-A60F-CE9E89755ECE}"/>
+    <workbookView xWindow="7800" yWindow="2840" windowWidth="28040" windowHeight="17440" xr2:uid="{1A86E8AF-80D3-044C-A60F-CE9E89755ECE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Model</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Recall (Sensitivity)</t>
   </si>
 </sst>
 </file>
@@ -55,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="198" formatCode="0.0000000000000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -104,8 +107,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="198" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,48 +424,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723DB8FC-2CA1-A344-A5D6-D3E3B3F26DE5}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>0.78899827105606701</v>
       </c>
+      <c r="C2">
+        <v>0.95</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>0.71521823506580495</v>
       </c>
+      <c r="C3">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>0.78808087223457102</v>
+      </c>
+      <c r="C4">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/ML_models.xlsx
+++ b/Resources/ML_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elainehm/Desktop/DA/Diabetes-Predictions-in-ICUs/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757997FB-9506-644E-A271-E82D67F2DE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2EDB9-395A-2B41-8378-1CF49F4ECF13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="2840" windowWidth="28040" windowHeight="17440" xr2:uid="{1A86E8AF-80D3-044C-A60F-CE9E89755ECE}"/>
   </bookViews>
@@ -108,7 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>0.78899827105606701</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="C2">
         <v>0.95</v>
@@ -464,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>0.71521823506580495</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="C3">
         <v>0.81</v>
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>0.78808087223457102</v>
+        <v>0.78810000000000002</v>
       </c>
       <c r="C4">
         <v>0.92</v>
